--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1902.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105A6576-2DE2-4FE3-B6A8-35F39BD9E43C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392EFF60-6295-4965-9622-18FD9A9A88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="1290" windowWidth="32535" windowHeight="20955" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -214,12 +219,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>чc-м</t>
-  </si>
-  <si>
-    <t>чc-ж</t>
-  </si>
-  <si>
     <t>чс-о</t>
   </si>
   <si>
@@ -239,6 +238,12 @@
   </si>
   <si>
     <t>стр. X, 15, 93</t>
+  </si>
+  <si>
+    <t>чс-м</t>
+  </si>
+  <si>
+    <t>чс-ж</t>
   </si>
 </sst>
 </file>
@@ -248,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,11 +643,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -655,19 +660,19 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="10" max="10" width="10.578125" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -699,31 +704,31 @@
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -787,7 +792,7 @@
         <v>8.8171415605060588E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -851,7 +856,7 @@
         <v>-4.4499863191131084E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -915,7 +920,7 @@
         <v>-4.6884475917110535E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -979,7 +984,7 @@
         <v>-2.4409262552897104E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1048,7 @@
         <v>7.0197339370388079E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>-2.7482844968361064E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +1176,7 @@
         <v>-6.894422414289636E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>-3.7972422852021737E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>2.2065489967424412E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1360,7 +1365,7 @@
         <v>-6.2135396739563475E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +1428,7 @@
         <v>-2.4818128490199598E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +1491,7 @@
         <v>-1.7224498467996341E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1549,7 +1554,7 @@
         <v>-3.8880609162983859E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>4.141155722928147E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1675,7 +1680,7 @@
         <v>3.2848013419766176E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1738,7 +1743,7 @@
         <v>-3.9255570614439961E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1801,7 +1806,7 @@
         <v>-3.645345070925643E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1869,7 @@
         <v>-1.8331640483246758E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1927,7 +1932,7 @@
         <v>-1.2894601366934211E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1990,7 +1995,7 @@
         <v>-1.8460689244541584E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2053,7 +2058,7 @@
         <v>-1.0398585355115841E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2116,7 +2121,7 @@
         <v>-5.6947546764455126E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2179,7 +2184,7 @@
         <v>1.3654742593423919E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2247,7 @@
         <v>1.4503916593042732E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2305,7 +2310,7 @@
         <v>1.043222554145018E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2368,7 +2373,7 @@
         <v>2.1374798049176746E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2431,7 +2436,7 @@
         <v>3.5363652304873483E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v>-3.5228067427176768E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2557,7 +2562,7 @@
         <v>2.3353956639098783E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2620,7 +2625,7 @@
         <v>-1.1516302996440686E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>3.5940118577258318E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2746,7 +2751,7 @@
         <v>7.970129182350405E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2809,7 +2814,7 @@
         <v>4.1468996217268739E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2872,7 +2877,7 @@
         <v>3.2400222419560976E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2935,7 +2940,7 @@
         <v>-3.04361162404021E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2998,7 +3003,7 @@
         <v>-2.1661643361987615E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3061,7 +3066,7 @@
         <v>-6.0259663795910967E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v>6.7787877582034639E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3187,7 +3192,7 @@
         <v>-2.889269343813794E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3250,7 +3255,7 @@
         <v>-7.9690756628373549E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3313,7 +3318,7 @@
         <v>0.80564420324235186</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3376,7 +3381,7 @@
         <v>1.2781559357698313E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3439,7 +3444,7 @@
         <v>-5.4533366820805895E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3502,7 +3507,7 @@
         <v>-1.0343751908621357E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3565,7 +3570,7 @@
         <v>-4.7458749975824333E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3628,7 +3633,7 @@
         <v>-1.1824209630251659E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3691,7 +3696,7 @@
         <v>-2.5455204260758535E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3754,7 +3759,7 @@
         <v>9.4057956214754768E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3817,7 +3822,7 @@
         <v>1.538631570222293E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3880,7 +3885,7 @@
         <v>4.4334529736953954E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3943,14 +3948,14 @@
         <v>-2.7947063269326833E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>
@@ -3981,7 +3986,7 @@
         <v>3204333</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="B55" s="4">
         <f>B52-B54</f>
         <v>0</v>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1902.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392EFF60-6295-4965-9622-18FD9A9A88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F4254-DFA8-4E3F-9A7C-F73649C87D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>губ</t>
   </si>
   <si>
-    <t>чж PYY</t>
-  </si>
-  <si>
     <t>р</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>чс-ж</t>
+  </si>
+  <si>
+    <t>чж YY</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -677,55 +677,55 @@
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -3887,7 +3887,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3">
         <v>101634686</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1902.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1902.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F4254-DFA8-4E3F-9A7C-F73649C87D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C0D80-E8A7-4F1C-BB4C-5DC42C6D7A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="84735" yWindow="1755" windowWidth="29700" windowHeight="16770" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -660,7 +660,8 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
